--- a/ErrorCheckingList.xlsx
+++ b/ErrorCheckingList.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>NOP</t>
   </si>
@@ -116,12 +116,6 @@
     <t>Bcc(BCC,BGT,BLE)</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>size byte?</t>
-  </si>
-  <si>
     <t>condition</t>
   </si>
   <si>
@@ -137,19 +131,52 @@
     <t>light purple</t>
   </si>
   <si>
-    <t>size byte-type2</t>
-  </si>
-  <si>
     <t>Implemented?</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>size already checked</t>
+    <t>mode (and possibly mask?)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>can't be 00</t>
+  </si>
+  <si>
+    <t>mode can't be certain things based on if it's memory to register or register to memory</t>
+  </si>
+  <si>
+    <t>not ADDX</t>
+  </si>
+  <si>
+    <t>see Opcodes-v2.3 table</t>
+  </si>
+  <si>
+    <t>opmode field (D,Size), effective address</t>
+  </si>
+  <si>
+    <t>op-mode can't be 011 or 111, effective address cant be 000 or 001 when destination is not register</t>
+  </si>
+  <si>
+    <t>mode and register</t>
+  </si>
+  <si>
+    <t>mode can't be 001, and register can't be 101, 110, 111 if mode is 111</t>
+  </si>
+  <si>
+    <t>mode and Ea register</t>
+  </si>
+  <si>
+    <t>mode can only be 010 or 111 and register can only be 000 or 001 when mode is 111</t>
+  </si>
+  <si>
+    <t>size, Ea mode and register</t>
+  </si>
+  <si>
+    <t>size can't be 11, mode can't be 001, reg can only be 000, 001 when mode is 111</t>
   </si>
 </sst>
 </file>
@@ -193,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -230,23 +257,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,306 +615,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G27"/>
+  <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E26" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>40</v>
+      <c r="E27" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
